--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3756.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3756.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.247832390882231</v>
+        <v>0.4384205043315887</v>
       </c>
       <c r="B1">
-        <v>2.530257151027715</v>
+        <v>0.8841232657432556</v>
       </c>
       <c r="C1">
-        <v>4.135707446195977</v>
+        <v>4.397961616516113</v>
       </c>
       <c r="D1">
-        <v>3.502276135735968</v>
+        <v>2.194677591323853</v>
       </c>
       <c r="E1">
-        <v>1.154183246454876</v>
+        <v>0.7833092212677002</v>
       </c>
     </row>
   </sheetData>
